--- a/_Resources/_MapData/mapMaker_2.xlsx
+++ b/_Resources/_MapData/mapMaker_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Projects\DirectX\2D_METALSLUG\_Resources\_MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9500A-5465-4E62-9A0A-2CAE25EF2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CADD2-BDC4-4E0C-BBD9-387905593F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="15090" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOM_TEST" sheetId="47" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>블록 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,7 +260,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="425">
+  <dxfs count="245">
     <dxf>
       <fill>
         <patternFill>
@@ -522,6 +522,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -697,6 +704,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -872,6 +886,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -1047,6 +1068,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -1222,6 +1250,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -1397,6 +1432,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -1572,6 +1614,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="darkVertical">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -1658,1315 +1707,6 @@
       <fill>
         <patternFill patternType="darkVertical">
           <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3524,7 +2264,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4376,45 +3116,45 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
@@ -4422,40 +3162,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="15" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="16" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="18" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="27" operator="equal">
@@ -4472,21 +3212,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -4505,13 +3243,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -4531,17 +3266,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -4561,17 +3289,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -4591,17 +3312,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -4621,15 +3335,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -4649,13 +3358,8 @@
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4677,15 +3381,10 @@
       <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -4705,15 +3404,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -4733,15 +3427,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -4761,15 +3450,10 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -4789,15 +3473,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -4817,104 +3496,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="224" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="223" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="211" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4928,21 +3555,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -4961,13 +3586,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -4987,17 +3609,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -5017,17 +3632,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -5047,17 +3655,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5077,15 +3678,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -5105,13 +3701,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5133,15 +3724,10 @@
       <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -5161,15 +3747,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -5189,15 +3770,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -5217,15 +3793,10 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -5245,15 +3816,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -5273,104 +3839,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="199" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="186" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5384,21 +3898,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -5417,13 +3929,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -5443,17 +3952,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -5473,17 +3975,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -5503,17 +3998,10 @@
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5533,15 +4021,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -5561,13 +4044,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5589,15 +4067,10 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -5617,15 +4090,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -5645,15 +4113,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -5673,15 +4136,10 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -5701,15 +4159,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -5729,104 +4182,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="174" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="161" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5840,21 +4241,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -5873,13 +4272,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -5899,17 +4295,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -5929,17 +4318,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -5959,17 +4341,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5989,15 +4364,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -6017,13 +4387,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6045,15 +4410,10 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -6073,15 +4433,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -6101,15 +4456,10 @@
       <c r="G9" s="4">
         <v>4</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -6129,15 +4479,10 @@
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -6157,15 +4502,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -6185,104 +4525,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="136" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6296,21 +4584,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -6329,13 +4615,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -6355,17 +4638,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -6385,17 +4661,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -6415,17 +4684,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -6445,15 +4707,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -6473,13 +4730,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6501,15 +4753,10 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -6529,15 +4776,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -6557,15 +4799,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -6585,15 +4822,10 @@
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -6613,15 +4845,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -6641,104 +4868,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="124" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="123" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6752,21 +4927,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -6785,13 +4958,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -6811,17 +4981,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -6841,17 +5004,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -6871,17 +5027,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -6901,15 +5050,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -6929,13 +5073,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6957,15 +5096,10 @@
       <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -6985,15 +5119,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
@@ -7013,15 +5142,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -7041,15 +5165,10 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -7069,15 +5188,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -7097,104 +5211,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="86" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7388,21 +5450,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -7463,13 +5523,10 @@
       <c r="U1" s="3">
         <v>19</v>
       </c>
-      <c r="V1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -7531,17 +5588,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -7603,15 +5653,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -7673,17 +5718,10 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -7745,17 +5783,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1">
-        <v>8</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -7817,13 +5848,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -7887,15 +5913,10 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -7957,15 +5978,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -8027,15 +6043,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -8097,15 +6108,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -8167,15 +6173,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -8237,104 +6238,50 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8351,7 +6298,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8429,7 +6376,7 @@
     </row>
     <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -8501,7 +6448,7 @@
     </row>
     <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -8573,7 +6520,7 @@
     </row>
     <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -8645,7 +6592,7 @@
     </row>
     <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -8715,7 +6662,7 @@
     </row>
     <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -8855,7 +6802,7 @@
     </row>
     <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -8925,7 +6872,7 @@
     </row>
     <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -8995,7 +6942,7 @@
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -9065,7 +7012,7 @@
     </row>
     <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -9135,7 +7082,7 @@
     </row>
     <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -9212,45 +7159,45 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
@@ -9258,40 +7205,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="27" operator="equal">
@@ -9308,21 +7255,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -9384,7 +7329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -9448,13 +7393,8 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -9518,13 +7458,8 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -9588,13 +7523,8 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -9658,13 +7588,8 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -9728,13 +7653,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9798,13 +7718,8 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -9868,13 +7783,8 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -9938,13 +7848,8 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -10008,13 +7913,8 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -10078,13 +7978,8 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -10148,104 +8043,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="424" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="423" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="411" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10259,21 +8102,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -10335,9 +8176,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -10399,17 +8240,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -10471,17 +8305,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -10543,17 +8370,10 @@
       <c r="U4" s="4">
         <v>1</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -10615,15 +8435,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -10685,13 +8500,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -10755,15 +8565,10 @@
       <c r="U7" s="4">
         <v>0</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -10825,15 +8630,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -10895,15 +8695,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -10965,15 +8760,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -11035,15 +8825,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -11105,104 +8890,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="398" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="386" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11216,21 +8949,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -11292,9 +9023,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -11356,17 +9087,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -11428,17 +9152,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -11500,17 +9217,10 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -11572,15 +9282,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -11642,13 +9347,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -11712,15 +9412,10 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -11782,15 +9477,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -11852,15 +9542,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -11922,15 +9607,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -11992,15 +9672,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -12062,104 +9737,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="374" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="373" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="192" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="361" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12173,21 +9796,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -12249,9 +9870,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -12313,17 +9934,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -12385,17 +9999,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -12457,17 +10064,10 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -12529,15 +10129,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -12599,13 +10194,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -12669,15 +10259,10 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -12739,15 +10324,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -12809,15 +10389,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -12879,15 +10454,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -12949,15 +10519,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -13019,104 +10584,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="349" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="348" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="179" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="336" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13130,21 +10643,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -13206,9 +10717,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -13270,17 +10781,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -13342,17 +10846,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -13414,17 +10911,10 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -13486,15 +10976,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -13556,13 +11041,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -13626,15 +11106,10 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -13696,15 +11171,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -13766,15 +11236,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -13836,15 +11301,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -13906,15 +11366,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -13976,104 +11431,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="324" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="323" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="311" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14087,21 +11490,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -14163,7 +11564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -14227,13 +11628,8 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -14297,13 +11693,8 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -14367,13 +11758,8 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -14437,13 +11823,8 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -14507,13 +11888,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -14577,13 +11953,8 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -14647,13 +12018,8 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -14717,13 +12083,8 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -14787,13 +12148,8 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -14857,13 +12213,8 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -14927,104 +12278,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="299" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="298" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="153" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="286" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15038,21 +12337,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="A13:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -15114,9 +12411,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -15178,17 +12475,10 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -15250,17 +12540,10 @@
       <c r="U3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -15322,17 +12605,10 @@
       <c r="U4" s="4">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -15394,15 +12670,10 @@
       <c r="U5" s="4">
         <v>0</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -15464,13 +12735,8 @@
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -15534,15 +12800,10 @@
       <c r="U7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -15604,15 +12865,10 @@
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -15674,15 +12930,10 @@
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -15744,15 +12995,10 @@
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -15814,15 +13060,10 @@
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -15884,104 +13125,52 @@
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U12">
-    <cfRule type="cellIs" dxfId="274" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Z12">
-    <cfRule type="cellIs" dxfId="273" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:U12">
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="261" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15995,21 +13184,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3">
         <v>0</v>
       </c>
@@ -16028,13 +13215,10 @@
       <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -16054,17 +13238,10 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -16084,17 +13261,10 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -16114,17 +13284,10 @@
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -16144,15 +13307,10 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -16172,13 +13330,8 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -16200,15 +13353,10 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -16228,15 +13376,10 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -16256,15 +13399,10 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -16284,15 +13422,10 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -16312,15 +13445,10 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -16340,104 +13468,52 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:G12">
-    <cfRule type="cellIs" dxfId="249" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L12">
-    <cfRule type="cellIs" dxfId="248" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:G12">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="236" priority="15" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="16" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="17" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="18" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="19" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="20" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="21" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="22" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="23" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="25" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
